--- a/data/FSR_S4/stability/FSR_S4 Stability Data.xlsx
+++ b/data/FSR_S4/stability/FSR_S4 Stability Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patrickruiz/Desktop/FSR/data/FSR_S4/stability/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1F0A26D-383C-5B42-998D-86C2883E95DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{201BA6D9-692A-5D48-AA5C-6B9913F18A18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="22500" xr2:uid="{05FAEE67-03BB-4EED-BB39-2994B23103BF}"/>
   </bookViews>
@@ -432,7 +432,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="167" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H22"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/data/FSR_S4/stability/FSR_S4 Stability Data.xlsx
+++ b/data/FSR_S4/stability/FSR_S4 Stability Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patrickruiz/Desktop/FSR/data/FSR_S4/stability/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pr19556\OneDrive - Applied Medical\Desktop\FSR\data\FSR_S4\stability\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{201BA6D9-692A-5D48-AA5C-6B9913F18A18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4710F73-8530-4600-8D52-38F7D743B0ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="22500" xr2:uid="{05FAEE67-03BB-4EED-BB39-2994B23103BF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{05FAEE67-03BB-4EED-BB39-2994B23103BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -133,9 +133,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -173,7 +173,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -279,7 +279,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -421,7 +421,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -432,21 +432,21 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="167" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.85546875" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>4</v>
       </c>
@@ -469,7 +469,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>50</v>
       </c>
@@ -492,7 +492,7 @@
         <v>4670</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>50</v>
       </c>
@@ -515,7 +515,7 @@
         <v>4355</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>50</v>
       </c>
@@ -538,7 +538,7 @@
         <v>4107</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>50</v>
       </c>
@@ -561,7 +561,7 @@
         <v>3804</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>50</v>
       </c>
@@ -584,7 +584,7 @@
         <v>3780</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>50</v>
       </c>
@@ -607,7 +607,7 @@
         <v>3542</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>50</v>
       </c>
@@ -630,7 +630,7 @@
         <v>3347</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>50</v>
       </c>
@@ -653,7 +653,7 @@
         <v>3141</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>50</v>
       </c>
@@ -676,7 +676,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>50</v>
       </c>
@@ -699,7 +699,7 @@
         <v>2693</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>50</v>
       </c>
@@ -722,7 +722,7 @@
         <v>2604</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>50</v>
       </c>
@@ -745,7 +745,7 @@
         <v>2575</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>50</v>
       </c>
@@ -768,7 +768,7 @@
         <v>2405</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>50</v>
       </c>
@@ -791,7 +791,7 @@
         <v>2255</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>50</v>
       </c>
@@ -814,7 +814,7 @@
         <v>2195</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>50</v>
       </c>
@@ -837,7 +837,7 @@
         <v>2039</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>50</v>
       </c>
@@ -860,7 +860,7 @@
         <v>2041</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>50</v>
       </c>
@@ -883,7 +883,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>50</v>
       </c>
@@ -906,7 +906,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>50</v>
       </c>
@@ -929,7 +929,7 @@
         <v>1887</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>50</v>
       </c>
